--- a/SchedulingData/static6/pso/scheduling1_17.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>57.94</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>26.876</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>39.62</v>
+        <v>75.54000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>27.228</v>
+        <v>27.096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>39.62</v>
+        <v>75.54000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>97.94</v>
+        <v>131.78</v>
       </c>
       <c r="E4" t="n">
-        <v>23.016</v>
+        <v>23.092</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>71.40000000000001</v>
+        <v>46.84</v>
       </c>
       <c r="E5" t="n">
-        <v>24.54</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57.94</v>
+        <v>46.84</v>
       </c>
       <c r="D6" t="n">
-        <v>111.52</v>
+        <v>125.64</v>
       </c>
       <c r="E6" t="n">
-        <v>23.628</v>
+        <v>21.236</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D7" t="n">
-        <v>82.09999999999999</v>
+        <v>117.06</v>
       </c>
       <c r="E7" t="n">
-        <v>26.44</v>
+        <v>21.604</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>111.52</v>
+        <v>131.78</v>
       </c>
       <c r="D8" t="n">
-        <v>154.32</v>
+        <v>183.58</v>
       </c>
       <c r="E8" t="n">
-        <v>19.988</v>
+        <v>19.532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>154.32</v>
+        <v>125.64</v>
       </c>
       <c r="D9" t="n">
-        <v>216.42</v>
+        <v>183.28</v>
       </c>
       <c r="E9" t="n">
-        <v>16.868</v>
+        <v>17.092</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>97.94</v>
+        <v>183.58</v>
       </c>
       <c r="D10" t="n">
-        <v>147.2</v>
+        <v>231.94</v>
       </c>
       <c r="E10" t="n">
-        <v>19.22</v>
+        <v>15.836</v>
       </c>
     </row>
     <row r="11">
@@ -637,55 +637,55 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>82.09999999999999</v>
+        <v>117.06</v>
       </c>
       <c r="D11" t="n">
-        <v>146.76</v>
+        <v>184.88</v>
       </c>
       <c r="E11" t="n">
-        <v>21.604</v>
+        <v>16.452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>94.40000000000001</v>
+        <v>49.9</v>
       </c>
       <c r="E12" t="n">
-        <v>24.72</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>94.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>150.74</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>21.696</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="14">
@@ -694,17 +694,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>146.76</v>
+        <v>184.88</v>
       </c>
       <c r="D14" t="n">
-        <v>205.06</v>
+        <v>260.68</v>
       </c>
       <c r="E14" t="n">
-        <v>17.884</v>
+        <v>10.992</v>
       </c>
     </row>
     <row r="15">
@@ -713,150 +713,150 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>78.09999999999999</v>
+        <v>114.74</v>
       </c>
       <c r="E15" t="n">
-        <v>26.32</v>
+        <v>23.296</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>71.40000000000001</v>
+        <v>183.28</v>
       </c>
       <c r="D16" t="n">
-        <v>146.64</v>
+        <v>255.34</v>
       </c>
       <c r="E16" t="n">
-        <v>20.116</v>
+        <v>11.996</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>147.2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>209</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>14.66</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>209</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>296.82</v>
+        <v>169.16</v>
       </c>
       <c r="E18" t="n">
-        <v>11.468</v>
+        <v>21.404</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>205.06</v>
+        <v>169.16</v>
       </c>
       <c r="D19" t="n">
-        <v>296.16</v>
+        <v>260.96</v>
       </c>
       <c r="E19" t="n">
-        <v>14.344</v>
+        <v>17.324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>146.64</v>
+        <v>260.96</v>
       </c>
       <c r="D20" t="n">
-        <v>215.44</v>
+        <v>311.6</v>
       </c>
       <c r="E20" t="n">
-        <v>16.816</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>150.74</v>
+        <v>114.74</v>
       </c>
       <c r="D21" t="n">
-        <v>194.32</v>
+        <v>162.86</v>
       </c>
       <c r="E21" t="n">
-        <v>18.968</v>
+        <v>20.104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>215.44</v>
+        <v>255.34</v>
       </c>
       <c r="D22" t="n">
-        <v>292.04</v>
+        <v>308.92</v>
       </c>
       <c r="E22" t="n">
-        <v>12.736</v>
+        <v>8.747999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -865,55 +865,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>292.04</v>
+        <v>49.9</v>
       </c>
       <c r="D23" t="n">
-        <v>355.92</v>
+        <v>108.44</v>
       </c>
       <c r="E23" t="n">
-        <v>9.928000000000001</v>
+        <v>21.976</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>78.09999999999999</v>
+        <v>231.94</v>
       </c>
       <c r="D24" t="n">
-        <v>134.54</v>
+        <v>313.24</v>
       </c>
       <c r="E24" t="n">
-        <v>22.316</v>
+        <v>12.296</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>216.42</v>
+        <v>108.44</v>
       </c>
       <c r="D25" t="n">
-        <v>270.24</v>
+        <v>156.88</v>
       </c>
       <c r="E25" t="n">
-        <v>14.096</v>
+        <v>18.752</v>
       </c>
     </row>
     <row r="26">
@@ -922,131 +922,131 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>194.32</v>
+        <v>311.6</v>
       </c>
       <c r="D26" t="n">
-        <v>234.66</v>
+        <v>376.1</v>
       </c>
       <c r="E26" t="n">
-        <v>16.064</v>
+        <v>10.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>234.66</v>
+        <v>260.68</v>
       </c>
       <c r="D27" t="n">
-        <v>294.06</v>
+        <v>304.58</v>
       </c>
       <c r="E27" t="n">
-        <v>13.744</v>
+        <v>8.231999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>296.16</v>
+        <v>313.24</v>
       </c>
       <c r="D28" t="n">
-        <v>359.6</v>
+        <v>385.24</v>
       </c>
       <c r="E28" t="n">
-        <v>10.12</v>
+        <v>7.736</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>294.06</v>
+        <v>162.86</v>
       </c>
       <c r="D29" t="n">
-        <v>393.6</v>
+        <v>206.44</v>
       </c>
       <c r="E29" t="n">
-        <v>9.880000000000001</v>
+        <v>17.376</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>134.54</v>
+        <v>304.58</v>
       </c>
       <c r="D30" t="n">
-        <v>228.34</v>
+        <v>353.96</v>
       </c>
       <c r="E30" t="n">
-        <v>17.516</v>
+        <v>5.424</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>228.34</v>
+        <v>308.92</v>
       </c>
       <c r="D31" t="n">
-        <v>267.94</v>
+        <v>351.72</v>
       </c>
       <c r="E31" t="n">
-        <v>15.196</v>
+        <v>5.108</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>296.82</v>
+        <v>376.1</v>
       </c>
       <c r="D32" t="n">
-        <v>349.56</v>
+        <v>419.7</v>
       </c>
       <c r="E32" t="n">
-        <v>7.324</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="33">
@@ -1055,112 +1055,112 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>267.94</v>
+        <v>206.44</v>
       </c>
       <c r="D33" t="n">
-        <v>312.34</v>
+        <v>263.58</v>
       </c>
       <c r="E33" t="n">
-        <v>11.396</v>
+        <v>13.792</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>393.6</v>
+        <v>156.88</v>
       </c>
       <c r="D34" t="n">
-        <v>447.54</v>
+        <v>199.38</v>
       </c>
       <c r="E34" t="n">
-        <v>5.616</v>
+        <v>15.632</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>359.6</v>
+        <v>351.72</v>
       </c>
       <c r="D35" t="n">
-        <v>426.86</v>
+        <v>404.06</v>
       </c>
       <c r="E35" t="n">
-        <v>5.024</v>
+        <v>1.984</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>270.24</v>
+        <v>404.06</v>
       </c>
       <c r="D36" t="n">
-        <v>313.78</v>
+        <v>481.79</v>
       </c>
       <c r="E36" t="n">
-        <v>10.872</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>313.78</v>
+        <v>353.96</v>
       </c>
       <c r="D37" t="n">
-        <v>386.6</v>
+        <v>406.96</v>
       </c>
       <c r="E37" t="n">
-        <v>5.72</v>
+        <v>1.764</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>386.6</v>
+        <v>406.96</v>
       </c>
       <c r="D38" t="n">
-        <v>439.86</v>
+        <v>470.43</v>
       </c>
       <c r="E38" t="n">
-        <v>2.024</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>355.92</v>
+        <v>199.38</v>
       </c>
       <c r="D39" t="n">
-        <v>447.7</v>
+        <v>257.7</v>
       </c>
       <c r="E39" t="n">
-        <v>6.34</v>
+        <v>11.42</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>447.7</v>
+        <v>257.7</v>
       </c>
       <c r="D40" t="n">
-        <v>503.68</v>
+        <v>296.72</v>
       </c>
       <c r="E40" t="n">
-        <v>3.832</v>
+        <v>8.648</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>349.56</v>
+        <v>263.58</v>
       </c>
       <c r="D41" t="n">
-        <v>421.62</v>
+        <v>322.42</v>
       </c>
       <c r="E41" t="n">
-        <v>2.228</v>
+        <v>9.528</v>
       </c>
     </row>
     <row r="42">
@@ -1226,41 +1226,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>503.68</v>
+        <v>296.72</v>
       </c>
       <c r="D42" t="n">
-        <v>554.92</v>
+        <v>363.42</v>
       </c>
       <c r="E42" t="n">
-        <v>0.348</v>
+        <v>3.608</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>554.92</v>
+        <v>419.7</v>
       </c>
       <c r="D43" t="n">
-        <v>621.22</v>
+        <v>514.24</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>2.996</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1268,108 +1268,108 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>447.54</v>
+        <v>481.79</v>
       </c>
       <c r="D44" t="n">
-        <v>499.76</v>
+        <v>534.3099999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>3.024</v>
+        <v>27.408</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>312.34</v>
+        <v>470.43</v>
       </c>
       <c r="D45" t="n">
-        <v>388.94</v>
+        <v>507.51</v>
       </c>
       <c r="E45" t="n">
-        <v>6.356</v>
+        <v>27.492</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>421.62</v>
+        <v>363.42</v>
       </c>
       <c r="D46" t="n">
-        <v>498.86</v>
+        <v>407.06</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>498.86</v>
+        <v>407.06</v>
       </c>
       <c r="D47" t="n">
-        <v>538.1</v>
+        <v>497.99</v>
       </c>
       <c r="E47" t="n">
-        <v>26.776</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>388.94</v>
+        <v>507.51</v>
       </c>
       <c r="D48" t="n">
-        <v>446.64</v>
+        <v>581.87</v>
       </c>
       <c r="E48" t="n">
-        <v>2.696</v>
+        <v>22.656</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>446.64</v>
+        <v>581.87</v>
       </c>
       <c r="D49" t="n">
-        <v>508.25</v>
+        <v>630.6900000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>19.884</v>
       </c>
     </row>
     <row r="50">
@@ -1378,74 +1378,55 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>508.25</v>
+        <v>322.42</v>
       </c>
       <c r="D50" t="n">
-        <v>547.75</v>
+        <v>371.54</v>
       </c>
       <c r="E50" t="n">
-        <v>27.24</v>
+        <v>5.256</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>426.86</v>
+        <v>371.54</v>
       </c>
       <c r="D51" t="n">
-        <v>480.98</v>
+        <v>420.94</v>
       </c>
       <c r="E51" t="n">
-        <v>0.752</v>
+        <v>2.936</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>480.98</v>
+        <v>385.24</v>
       </c>
       <c r="D52" t="n">
-        <v>571.1799999999999</v>
+        <v>452.02</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>pond59</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>538.1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>624.84</v>
-      </c>
-      <c r="E53" t="n">
-        <v>23.192</v>
+        <v>4.148</v>
       </c>
     </row>
   </sheetData>
